--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/impact_inputs_sr.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/impact_inputs_sr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C801080-87BC-B14D-937E-FCA6A4BC34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880ED1A-6D04-0044-85C0-9D1FCBFB6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{BDF1304B-A11E-9F40-8E8C-E06F04432198}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{BDF1304B-A11E-9F40-8E8C-E06F04432198}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpactValue" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="138">
   <si>
     <t>AlphaN</t>
   </si>
@@ -433,9 +433,6 @@
     <t>rpert(10000,0,20,5)</t>
   </si>
   <si>
-    <t>rpert(10000,0,30,11)</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>Proportion treated is same for SR with Bruc as for PPR</t>
+  </si>
+  <si>
+    <t>Labour costs for ppr from Wudu's work is &lt; ideal labout costs/head</t>
   </si>
 </sst>
 </file>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16E0645-2894-FB4D-A4BB-56EC451C1758}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:I115"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,91 +1325,67 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
-      <c r="B108" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" t="s">
-        <v>130</v>
-      </c>
-      <c r="E108" t="s">
-        <v>130</v>
-      </c>
-      <c r="F108" t="s">
-        <v>130</v>
-      </c>
-      <c r="G108" t="s">
-        <v>130</v>
-      </c>
-      <c r="H108" t="s">
-        <v>130</v>
-      </c>
-      <c r="I108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2662,28 +2638,28 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -2875,10 +2851,10 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
         <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>128</v>
@@ -3353,7 +3329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4508A998-6E75-A543-8ED2-291BE3DA8BEA}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
@@ -3390,16 +3366,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3408,16 +3384,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3426,16 +3402,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3445,10 +3421,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB713E6-1F06-EE43-A353-1A5BE609FA28}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3478,6 +3454,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/impact_inputs_sr.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/impact_inputs_sr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alarkins/Documents/GitHub/GBADsLiverpool/Ethiopia Workspace/Code and Control Files/Disease specific attribution/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880ED1A-6D04-0044-85C0-9D1FCBFB6A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F40E64-6DF1-454C-9017-75CAA10A7AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{BDF1304B-A11E-9F40-8E8C-E06F04432198}"/>
+    <workbookView xWindow="14220" yWindow="760" windowWidth="16020" windowHeight="18880" xr2:uid="{BDF1304B-A11E-9F40-8E8C-E06F04432198}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpactValue" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="139">
   <si>
     <t>AlphaN</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>Labour costs for ppr from Wudu's work is &lt; ideal labout costs/head</t>
+  </si>
+  <si>
+    <t>rpert(10000,0,30,11)+rpert(10000, (260/12), (649/12), (368/12))</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16E0645-2894-FB4D-A4BB-56EC451C1758}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="B108" sqref="B108:I108"/>
     </sheetView>
   </sheetViews>
@@ -1325,67 +1328,91 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" t="s">
+        <v>138</v>
+      </c>
+      <c r="F108" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>138</v>
+      </c>
+      <c r="H108" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3423,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB713E6-1F06-EE43-A353-1A5BE609FA28}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
